--- a/data/breaks.xlsx
+++ b/data/breaks.xlsx
@@ -7,30 +7,10 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>2025-01-19T03:41</t>
-  </si>
-  <si>
-    <t>2025-01-13T03:41</t>
-  </si>
-  <si>
-    <t>2025-01-13T02:41</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,7 +352,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -383,36 +363,7 @@
     <col min="3" max="3" width="6.719285714285714" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.719285714285713" style="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/breaks.xlsx
+++ b/data/breaks.xlsx
@@ -4,13 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="6285" yWindow="4620" windowWidth="28800" windowHeight="13065"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>2025-01-14T04:22</t>
+  </si>
+  <si>
+    <t>2025-01-14T03:22</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,10 +86,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -110,71 +127,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -202,7 +219,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -225,11 +242,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -238,13 +255,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -254,7 +271,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -263,7 +280,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -272,7 +289,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -280,10 +297,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -352,18 +369,49 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.862142857142857" customWidth="1"/>
-    <col min="2" max="2" width="7.862142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.719285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.719285714285713" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/breaks.xlsx
+++ b/data/breaks.xlsx
@@ -14,18 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>AS</t>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>2025-01-14T04:22</t>
-  </si>
-  <si>
-    <t>2025-01-14T03:22</t>
+    <t>2025-01-14T12:00</t>
+  </si>
+  <si>
+    <t>2025-01-14T11:00</t>
+  </si>
+  <si>
+    <t>2025-01-14T13:00</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>2025-01-14T15:20</t>
+  </si>
+  <si>
+    <t>2025-01-14T17:30</t>
+  </si>
+  <si>
+    <t>2025-01-14T19:20</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>2025-01-14T11:50</t>
+  </si>
+  <si>
+    <t>2025-01-14T14:30</t>
   </si>
 </sst>
 </file>
@@ -369,7 +390,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D5" sqref="D5"/>
@@ -387,28 +408,42 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>2</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/breaks.xlsx
+++ b/data/breaks.xlsx
@@ -14,39 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+  <si>
+    <t>BSP</t>
+  </si>
+  <si>
+    <t>2025-01-19T11:25</t>
+  </si>
+  <si>
+    <t>2025-01-19T12:30</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>2025-01-19T11:50</t>
+  </si>
+  <si>
+    <t>2025-01-19T13:00</t>
+  </si>
+  <si>
+    <t>2025-01-19T15:30</t>
+  </si>
   <si>
     <t>AS</t>
   </si>
   <si>
-    <t>2025-01-14T12:00</t>
-  </si>
-  <si>
-    <t>2025-01-14T11:00</t>
-  </si>
-  <si>
-    <t>2025-01-14T13:00</t>
-  </si>
-  <si>
-    <t>EM</t>
-  </si>
-  <si>
-    <t>2025-01-14T15:20</t>
-  </si>
-  <si>
-    <t>2025-01-14T17:30</t>
-  </si>
-  <si>
-    <t>2025-01-14T19:20</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>2025-01-14T11:50</t>
-  </si>
-  <si>
-    <t>2025-01-14T14:30</t>
+    <t>2025-01-19T12:20</t>
+  </si>
+  <si>
+    <t>2025-01-19T14:30</t>
+  </si>
+  <si>
+    <t>2025-01-19T15:20</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>2025-01-19T17:00</t>
+  </si>
+  <si>
+    <t>2025-01-19T20:00</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>2025-01-19T21:30</t>
+  </si>
+  <si>
+    <t>2025-01-19T23:00</t>
+  </si>
+  <si>
+    <t>2025-01-19T00:00</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>2025-01-19T18:30</t>
+  </si>
+  <si>
+    <t>2025-01-19T21:00</t>
+  </si>
+  <si>
+    <t>2025-01-19T23:30</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>2025-01-19T19:30</t>
+  </si>
+  <si>
+    <t>2025-01-19T21:40</t>
+  </si>
+  <si>
+    <t>2025-01-19T23:50</t>
   </si>
 </sst>
 </file>
@@ -390,7 +438,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D5" sqref="D5"/>
@@ -443,7 +491,63 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/breaks.xlsx
+++ b/data/breaks.xlsx
@@ -14,87 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>BSP</t>
-  </si>
-  <si>
-    <t>2025-01-19T11:25</t>
-  </si>
-  <si>
-    <t>2025-01-19T12:30</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>2025-01-21T11:50</t>
+  </si>
+  <si>
+    <t>2025-01-21T12:30</t>
+  </si>
+  <si>
+    <t>2025-01-21T14:50</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>2025-01-21T12:10</t>
+  </si>
+  <si>
+    <t>2025-01-21T14:30</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>2025-01-19T11:50</t>
-  </si>
-  <si>
-    <t>2025-01-19T13:00</t>
-  </si>
-  <si>
-    <t>2025-01-19T15:30</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>2025-01-19T12:20</t>
-  </si>
-  <si>
-    <t>2025-01-19T14:30</t>
-  </si>
-  <si>
-    <t>2025-01-19T15:20</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>2025-01-19T17:00</t>
-  </si>
-  <si>
-    <t>2025-01-19T20:00</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>2025-01-19T21:30</t>
-  </si>
-  <si>
-    <t>2025-01-19T23:00</t>
-  </si>
-  <si>
-    <t>2025-01-19T00:00</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>2025-01-19T18:30</t>
-  </si>
-  <si>
-    <t>2025-01-19T21:00</t>
-  </si>
-  <si>
-    <t>2025-01-19T23:30</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>2025-01-19T19:30</t>
-  </si>
-  <si>
-    <t>2025-01-19T21:40</t>
-  </si>
-  <si>
-    <t>2025-01-19T23:50</t>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>2025-01-21T12:20</t>
   </si>
 </sst>
 </file>
@@ -438,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D5" sqref="D5"/>
@@ -485,69 +434,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/breaks.xlsx
+++ b/data/breaks.xlsx
@@ -14,36 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>AS</t>
   </si>
   <si>
-    <t>2025-01-21T11:50</t>
-  </si>
-  <si>
-    <t>2025-01-21T12:30</t>
-  </si>
-  <si>
-    <t>2025-01-21T14:50</t>
-  </si>
-  <si>
-    <t>EM</t>
-  </si>
-  <si>
-    <t>2025-01-21T12:10</t>
-  </si>
-  <si>
-    <t>2025-01-21T14:30</t>
+    <t>2025-02-03T11:30</t>
+  </si>
+  <si>
+    <t>2025-02-03T13:00</t>
+  </si>
+  <si>
+    <t>2025-02-03T14:50</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:24</t>
+  </si>
+  <si>
+    <t>2025-02-04T16:25</t>
+  </si>
+  <si>
+    <t>2025-02-04T17:25</t>
+  </si>
+  <si>
+    <t>rgb(30, 144, 255)</t>
+  </si>
+  <si>
+    <t>2025-02-04T15:24</t>
+  </si>
+  <si>
+    <t>2025-02-04T18:25</t>
+  </si>
+  <si>
+    <t>rgb(46, 139, 87)</t>
+  </si>
+  <si>
+    <t>2025-02-06T12:28</t>
+  </si>
+  <si>
+    <t>2025-02-04T14:28</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>2025-01-21T12:20</t>
+    <t>rgb(194, 24, 7)</t>
+  </si>
+  <si>
+    <t>2025-02-06T11:28</t>
+  </si>
+  <si>
+    <t>2025-02-04T15:28</t>
+  </si>
+  <si>
+    <t>rgb(241, 156, 187)</t>
   </si>
 </sst>
 </file>
@@ -387,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D5" sqref="D5"/>
@@ -415,32 +439,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
